--- a/experiment result/128_0.9_40_zs40_kappa_lp.xlsx
+++ b/experiment result/128_0.9_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002418069346699035</v>
+        <v>0.001098366979817294</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003031829282247353</v>
+        <v>0.01268975976413076</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002498241804460857</v>
+        <v>0.003980744529571689</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001494734871817232</v>
+        <v>0.00692018371523598</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0007320006683467451</v>
+        <v>9.453945478173585e-05</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01007502987947168</v>
+        <v>0.01477985345093827</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01437421034035604</v>
+        <v>0.02637505182443232</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003972383154691526</v>
+        <v>0.001197611539469352</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0124783173638334</v>
+        <v>0.0382596482215042</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03659958533120058</v>
+        <v>0.1318295043092983</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02176950865373795</v>
+        <v>0.02002527827530334</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03286605234449084</v>
+        <v>0.06633666686932552</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0006912551896390549</v>
+        <v>0.001418351561647258</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01230835557263599</v>
+        <v>0.003438777496696617</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01576991454135444</v>
+        <v>0.006923257955469457</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0139419919831818</v>
+        <v>0.004975597013033507</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01015921032131794</v>
+        <v>0.002933042410248929</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0002263212721367729</v>
+        <v>8.149248355277748e-05</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01513134568126483</v>
+        <v>0.00256093349521421</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003981255356870521</v>
+        <v>0.003543444588399077</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0008715909342868601</v>
+        <v>0.0004426404725820303</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00813050000950455</v>
+        <v>0.0001199620502763844</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02399724925473103</v>
+        <v>0.02777886641481558</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0006386015167663061</v>
+        <v>0.0007611517099526002</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.001091739387942365</v>
+        <v>0.001090194768941307</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.009986655866851272</v>
+        <v>0.003133911145677811</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005912392980937996</v>
+        <v>0.007952493711111348</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.001494357356133129</v>
+        <v>0.002249653847508548</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01736467359720465</v>
+        <v>0.03765141502121541</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0007697690230980204</v>
+        <v>0.0128455172723741</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0009275639594777108</v>
+        <v>0.0001661531262510327</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.001299117929068709</v>
+        <v>0.006735136780068615</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.007595387103788645</v>
+        <v>0.01562383493125522</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.004080672757351669</v>
+        <v>0.01568192526935959</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.001426306245742581</v>
+        <v>0.00851383582388341</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01605187599354057</v>
+        <v>0.08093844198068298</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0005718413350649209</v>
+        <v>0.0076364785119116</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01517312885388453</v>
+        <v>0.0194910372274625</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003194510825426494</v>
+        <v>0.004313284541505732</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02809700892075818</v>
+        <v>0.03996708458633222</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.009535937788443884</v>
+        <v>0.03471529722538406</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0007553989561171579</v>
+        <v>0.003827442427253429</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.002363951093743824</v>
+        <v>0.04131603437353667</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02559026624668976</v>
+        <v>0.02563623915835738</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.005686096454863263</v>
+        <v>0.01525091368017121</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01494690806165041</v>
+        <v>0.01037849049049245</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01376225067951738</v>
+        <v>0.07477099205911275</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005703669058524746</v>
+        <v>0.003113073602982948</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.003519922504571634</v>
+        <v>0.002468930691063907</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.001939751397874877</v>
+        <v>0.0009873816412089924</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02342176781081715</v>
+        <v>0.0214400048371984</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.005789532513645126</v>
+        <v>0.01209924988794398</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0001681676368815697</v>
+        <v>0.0001766898550840367</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01030117482711428</v>
+        <v>0.003623635544951439</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006223163209957102</v>
+        <v>0.002741227428332194</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0009899912886265835</v>
+        <v>0.01027115802303995</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.00250739315750024</v>
+        <v>0.001461775767372872</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00205687631726272</v>
+        <v>0.009466250069911371</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.001685044947724676</v>
+        <v>0.002062821345830333</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.008101026024322534</v>
+        <v>0.01853533299740849</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0003742854480697898</v>
+        <v>0.0002313255915980398</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01245214560009628</v>
+        <v>0.001499213739066869</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001821586114010348</v>
+        <v>0.0009507096567852463</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006632261219426226</v>
+        <v>0.0001561715249538944</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.00220437000707377</v>
+        <v>0.004485579749174464</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.006518121769980428</v>
+        <v>0.009564594592681405</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.005153879351777999</v>
+        <v>0.005713570614236668</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0273417905625707</v>
+        <v>0.008126032650732614</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002076044483954369</v>
+        <v>0.002292294739304008</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0111314293722763</v>
+        <v>0.007683842787159896</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.006284534359441443</v>
+        <v>0.01799839802773432</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002118912025628393</v>
+        <v>0.0003598094611237675</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.001315850579782882</v>
+        <v>0.006027145821506856</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001612495939064169</v>
+        <v>0.01689607460718377</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01588929817659596</v>
+        <v>0.03810323448541129</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.006365829859172875</v>
+        <v>0.01381603625370554</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.006266023460201556</v>
+        <v>0.0006233923367761881</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.005697764067777442</v>
+        <v>0.01202620622877239</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01598967910192804</v>
+        <v>0.007684494084155671</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001689733035888716</v>
+        <v>0.00401691701878802</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0009248818655249513</v>
+        <v>0.01747917360834702</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02109788969911241</v>
+        <v>0.006301547830267618</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.004392105432678166</v>
+        <v>0.006858199317079898</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01242400682898327</v>
+        <v>0.007637049735681476</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.008986362574581944</v>
+        <v>0.02566812058758313</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.000533015455378783</v>
+        <v>0.0001958937084829487</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.001836948233104137</v>
+        <v>0.003252722650859765</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.04630531490456271</v>
+        <v>0.04583443886672633</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.005863124374576124</v>
+        <v>0.02201398065421196</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0007422084445246978</v>
+        <v>0.006436110640045399</v>
       </c>
     </row>
   </sheetData>
